--- a/.github/SDPP_ggseg_AtlasLUT.xlsx
+++ b/.github/SDPP_ggseg_AtlasLUT.xlsx
@@ -8,8 +8,8 @@
   <sheets>
     <sheet name="ASEG_Extra" sheetId="4" state="visible" r:id="rId1"/>
     <sheet name="ASEG" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="Desikan" sheetId="8" state="visible" r:id="rId3"/>
-    <sheet name="Destrieux" sheetId="9" state="visible" r:id="rId4"/>
+    <sheet name="Desikan" sheetId="10" state="visible" r:id="rId3"/>
+    <sheet name="Destrieux" sheetId="11" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/.github/SDPP_ggseg_AtlasLUT.xlsx
+++ b/.github/SDPP_ggseg_AtlasLUT.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ABCDStudyNDA\ABCD_DataAnalysis_5.0\SDPP_ABCD_TabulatedData\.github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7127D0AD-4C4F-4E35-B647-4952CE07A2BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE18EF-A616-4A47-BC82-C636A6D268ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Desikan" sheetId="12" r:id="rId1"/>
     <sheet name="Destrieux" sheetId="13" r:id="rId2"/>
     <sheet name="ASEG_Extra" sheetId="14" r:id="rId3"/>
     <sheet name="ASEG" sheetId="15" r:id="rId4"/>
+    <sheet name="ASEG_3D" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="428">
   <si>
     <t>hemi</t>
   </si>
@@ -1205,6 +1206,108 @@
   </si>
   <si>
     <t>Left-Hippocampus.post</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Left-Lateral-Ventricle</t>
+  </si>
+  <si>
+    <t>Left-Inf-Lat-Vent</t>
+  </si>
+  <si>
+    <t>Left-Cerebellum-White-Matter</t>
+  </si>
+  <si>
+    <t>Left-Cerebellum-Cortex</t>
+  </si>
+  <si>
+    <t>Left-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t>Left-Caudate</t>
+  </si>
+  <si>
+    <t>Left-Putamen</t>
+  </si>
+  <si>
+    <t>Left-Pallidum</t>
+  </si>
+  <si>
+    <t>3rd-Ventricle</t>
+  </si>
+  <si>
+    <t>4th-Ventricle</t>
+  </si>
+  <si>
+    <t>Brain-Stem</t>
+  </si>
+  <si>
+    <t>Left-Hippocampus</t>
+  </si>
+  <si>
+    <t>Left-Amygdala</t>
+  </si>
+  <si>
+    <t>Left-Accumbens-area</t>
+  </si>
+  <si>
+    <t>Left-VentralDC</t>
+  </si>
+  <si>
+    <t>Right-Lateral-Ventricle</t>
+  </si>
+  <si>
+    <t>Right-Inf-Lat-Vent</t>
+  </si>
+  <si>
+    <t>Right-Cerebellum-White-Matter</t>
+  </si>
+  <si>
+    <t>Right-Cerebellum-Cortex</t>
+  </si>
+  <si>
+    <t>Right-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t>Right-Caudate</t>
+  </si>
+  <si>
+    <t>Right-Putamen</t>
+  </si>
+  <si>
+    <t>Right-Pallidum</t>
+  </si>
+  <si>
+    <t>Right-Hippocampus</t>
+  </si>
+  <si>
+    <t>Right-Amygdala</t>
+  </si>
+  <si>
+    <t>Right-Accumbens-area</t>
+  </si>
+  <si>
+    <t>Right-VentralDC</t>
+  </si>
+  <si>
+    <t>CC_Posterior</t>
+  </si>
+  <si>
+    <t>CC_Mid_Posterior</t>
+  </si>
+  <si>
+    <t>CC_Central</t>
+  </si>
+  <si>
+    <t>CC_Mid_Anterior</t>
+  </si>
+  <si>
+    <t>CC_Anterior</t>
   </si>
 </sst>
 </file>
@@ -1549,9 +1652,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1579,7 +1682,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1593,7 +1696,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1621,7 +1724,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1635,7 +1738,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1649,7 +1752,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1663,7 +1766,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1677,7 +1780,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1691,7 +1794,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1705,7 +1808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1719,7 +1822,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1733,7 +1836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1850,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1864,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1878,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1892,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1906,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1920,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1934,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1948,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1962,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1976,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1990,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +2004,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +2018,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +2032,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +2046,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +2060,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +2074,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +2088,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1999,7 +2102,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2116,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2130,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2144,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2172,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2186,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2200,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +2214,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2139,7 +2242,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2256,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2270,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -2181,7 +2284,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>155</v>
       </c>
@@ -2195,7 +2298,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -2209,7 +2312,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -2223,7 +2326,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>155</v>
       </c>
@@ -2237,7 +2340,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -2251,7 +2354,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2265,7 +2368,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>155</v>
       </c>
@@ -2279,7 +2382,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>155</v>
       </c>
@@ -2293,7 +2396,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -2307,7 +2410,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -2321,7 +2424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2335,7 +2438,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>155</v>
       </c>
@@ -2349,7 +2452,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -2363,7 +2466,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>155</v>
       </c>
@@ -2377,7 +2480,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -2391,7 +2494,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>155</v>
       </c>
@@ -2405,7 +2508,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -2419,7 +2522,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>155</v>
       </c>
@@ -2433,7 +2536,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>155</v>
       </c>
@@ -2447,7 +2550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>155</v>
       </c>
@@ -2461,7 +2564,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -2475,7 +2578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>155</v>
       </c>
@@ -2489,7 +2592,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>155</v>
       </c>
@@ -2503,7 +2606,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -2517,7 +2620,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -2531,7 +2634,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -2545,7 +2648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>155</v>
       </c>
@@ -2559,7 +2662,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -2573,7 +2676,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>155</v>
       </c>
@@ -2587,7 +2690,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -2601,7 +2704,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>155</v>
       </c>
@@ -2615,7 +2718,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>155</v>
       </c>
@@ -2629,7 +2732,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -2643,7 +2746,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -2657,7 +2760,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -2671,7 +2774,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>155</v>
       </c>
@@ -2685,7 +2788,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -2699,7 +2802,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>155</v>
       </c>
@@ -2713,7 +2816,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -2727,7 +2830,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -2741,7 +2844,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -2755,7 +2858,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -2782,9 +2885,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2812,7 +2915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2826,7 +2929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2840,7 +2943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2910,7 +3013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +3027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2938,7 +3041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2952,7 +3055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +3069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2980,7 +3083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2994,7 +3097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +3111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3022,7 +3125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3139,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3050,7 +3153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3064,7 +3167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3078,7 +3181,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3106,7 +3209,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3120,7 +3223,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3134,7 +3237,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3148,7 +3251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3162,7 +3265,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3190,7 +3293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3204,7 +3307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3218,7 +3321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3335,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3363,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3274,7 +3377,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3344,7 +3447,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3358,7 +3461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -3372,7 +3475,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -3386,7 +3489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3503,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -3414,7 +3517,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3531,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3545,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -3470,7 +3573,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -3484,7 +3587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -3498,7 +3601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -3512,7 +3615,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3629,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +3685,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3699,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -3610,7 +3713,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -3624,7 +3727,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -3652,7 +3755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3769,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3811,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3825,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3853,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3867,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3778,7 +3881,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3792,7 +3895,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3909,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3820,7 +3923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3937,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3848,7 +3951,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3862,7 +3965,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3876,7 +3979,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3904,7 +4007,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3918,7 +4021,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3932,7 +4035,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3946,7 +4049,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3960,7 +4063,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3974,7 +4077,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -3988,7 +4091,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -4002,7 +4105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -4016,7 +4119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -4030,7 +4133,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -4044,7 +4147,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -4058,7 +4161,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -4072,7 +4175,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -4086,7 +4189,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>155</v>
       </c>
@@ -4100,7 +4203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>155</v>
       </c>
@@ -4114,7 +4217,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>155</v>
       </c>
@@ -4128,7 +4231,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>155</v>
       </c>
@@ -4142,7 +4245,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>155</v>
       </c>
@@ -4156,7 +4259,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>155</v>
       </c>
@@ -4170,7 +4273,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>155</v>
       </c>
@@ -4184,7 +4287,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>155</v>
       </c>
@@ -4198,7 +4301,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>155</v>
       </c>
@@ -4212,7 +4315,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>155</v>
       </c>
@@ -4226,7 +4329,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>155</v>
       </c>
@@ -4240,7 +4343,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>155</v>
       </c>
@@ -4254,7 +4357,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>155</v>
       </c>
@@ -4268,7 +4371,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>155</v>
       </c>
@@ -4282,7 +4385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>155</v>
       </c>
@@ -4296,7 +4399,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>155</v>
       </c>
@@ -4310,7 +4413,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -4324,7 +4427,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>155</v>
       </c>
@@ -4338,7 +4441,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>155</v>
       </c>
@@ -4352,7 +4455,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>155</v>
       </c>
@@ -4366,7 +4469,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>155</v>
       </c>
@@ -4380,7 +4483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -4394,7 +4497,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -4408,7 +4511,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -4422,7 +4525,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -4436,7 +4539,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -4450,7 +4553,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -4464,7 +4567,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -4478,7 +4581,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -4492,7 +4595,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -4506,7 +4609,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -4520,7 +4623,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -4534,7 +4637,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -4548,7 +4651,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -4562,7 +4665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -4576,7 +4679,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -4590,7 +4693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -4604,7 +4707,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -4618,7 +4721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -4632,7 +4735,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -4646,7 +4749,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -4660,7 +4763,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -4674,7 +4777,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -4688,7 +4791,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -4702,7 +4805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -4716,7 +4819,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -4730,7 +4833,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -4744,7 +4847,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -4758,7 +4861,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -4772,7 +4875,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -4786,7 +4889,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -4800,7 +4903,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -4814,7 +4917,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -4828,7 +4931,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>155</v>
       </c>
@@ -4842,7 +4945,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>155</v>
       </c>
@@ -4856,7 +4959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -4870,7 +4973,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -4884,7 +4987,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -4898,7 +5001,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -4912,7 +5015,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -4926,7 +5029,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>155</v>
       </c>
@@ -4940,7 +5043,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -4954,7 +5057,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4968,7 +5071,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4982,7 +5085,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>155</v>
       </c>
@@ -4996,7 +5099,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -5010,7 +5113,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>155</v>
       </c>
@@ -5024,7 +5127,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -5038,7 +5141,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>155</v>
       </c>
@@ -5052,7 +5155,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -5066,7 +5169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -5080,7 +5183,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>155</v>
       </c>
@@ -5094,7 +5197,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>155</v>
       </c>
@@ -5108,7 +5211,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>155</v>
       </c>
@@ -5122,7 +5225,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>155</v>
       </c>
@@ -5136,7 +5239,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>155</v>
       </c>
@@ -5165,12 +5268,12 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5178,7 +5281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>238</v>
       </c>
@@ -5186,7 +5289,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>382</v>
       </c>
@@ -5194,7 +5297,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>383</v>
       </c>
@@ -5202,7 +5305,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>384</v>
       </c>
@@ -5210,7 +5313,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>232</v>
       </c>
@@ -5218,7 +5321,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>253</v>
       </c>
@@ -5226,7 +5329,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -5234,7 +5337,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>250</v>
       </c>
@@ -5242,7 +5345,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>385</v>
       </c>
@@ -5250,7 +5353,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -5258,7 +5361,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>262</v>
       </c>
@@ -5266,7 +5369,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>248</v>
       </c>
@@ -5274,7 +5377,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>387</v>
       </c>
@@ -5282,7 +5385,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>246</v>
       </c>
@@ -5290,7 +5393,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -5298,7 +5401,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>388</v>
       </c>
@@ -5306,7 +5409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>276</v>
       </c>
@@ -5314,7 +5417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>274</v>
       </c>
@@ -5322,7 +5425,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -5330,7 +5433,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>254</v>
       </c>
@@ -5338,7 +5441,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>240</v>
       </c>
@@ -5346,7 +5449,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>251</v>
       </c>
@@ -5354,7 +5457,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>242</v>
       </c>
@@ -5362,7 +5465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>389</v>
       </c>
@@ -5370,7 +5473,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>245</v>
       </c>
@@ -5378,7 +5481,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>390</v>
       </c>
@@ -5386,7 +5489,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>391</v>
       </c>
@@ -5394,7 +5497,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>272</v>
       </c>
@@ -5402,7 +5505,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -5410,7 +5513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>266</v>
       </c>
@@ -5418,7 +5521,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>268</v>
       </c>
@@ -5426,7 +5529,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>264</v>
       </c>
@@ -5434,7 +5537,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>392</v>
       </c>
@@ -5442,7 +5545,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>393</v>
       </c>
@@ -5461,19 +5564,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.53515625" customWidth="1"/>
+    <col min="2" max="2" width="8.3046875" customWidth="1"/>
+    <col min="3" max="3" width="25.53515625" customWidth="1"/>
+    <col min="4" max="4" width="32.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5487,7 +5590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5501,7 +5604,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -5515,7 +5618,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5529,7 +5632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5543,7 +5646,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5557,7 +5660,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -5571,7 +5674,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -5585,7 +5688,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5702,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -5613,7 +5716,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5730,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -5641,7 +5744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -5655,7 +5758,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -5669,7 +5772,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>155</v>
       </c>
@@ -5683,7 +5786,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -5697,7 +5800,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -5711,7 +5814,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -5725,7 +5828,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>255</v>
       </c>
@@ -5739,7 +5842,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>255</v>
       </c>
@@ -5753,7 +5856,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>255</v>
       </c>
@@ -5767,7 +5870,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>255</v>
       </c>
@@ -5781,7 +5884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>255</v>
       </c>
@@ -5795,7 +5898,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -5809,7 +5912,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>255</v>
       </c>
@@ -5823,7 +5926,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>255</v>
       </c>
@@ -5837,7 +5940,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>255</v>
       </c>
@@ -5849,6 +5952,290 @@
       </c>
       <c r="D27" t="s">
         <v>276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="28.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>420</v>
+      </c>
+      <c r="B26" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/.github/SDPP_ggseg_AtlasLUT.xlsx
+++ b/.github/SDPP_ggseg_AtlasLUT.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ABCDStudyNDA\ABCD_DataAnalysis_5.0\SDPP_ABCD_TabulatedData\.github\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEE18EF-A616-4A47-BC82-C636A6D268ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Desikan" sheetId="12" r:id="rId1"/>
-    <sheet name="Destrieux" sheetId="13" r:id="rId2"/>
-    <sheet name="ASEG_Extra" sheetId="14" r:id="rId3"/>
-    <sheet name="ASEG" sheetId="15" r:id="rId4"/>
-    <sheet name="ASEG_3D" sheetId="16" r:id="rId5"/>
+    <sheet name="Destrieux" sheetId="13" state="visible" r:id="rId1"/>
+    <sheet name="Desikan" sheetId="17" state="visible" r:id="rId2"/>
+    <sheet name="ASEG_Extra" sheetId="18" state="visible" r:id="rId3"/>
+    <sheet name="ASEG" sheetId="19" state="visible" r:id="rId4"/>
+    <sheet name="ASEG_3D" sheetId="20" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>hemi</t>
   </si>
@@ -1308,25 +1301,535 @@
   </si>
   <si>
     <t>CC_Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bankssts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_bankssts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caudal middle frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_caudalmiddlefrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fusiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_fusiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inferior parietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_inferiorparietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inferior temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_inferiortemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lateral occipital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lateraloccipital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lateral orbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lateralorbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_middletemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pars opercularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parsopercularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pars orbitalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parsorbitalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pars triangularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parstriangularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postcentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_postcentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_precentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rostral middle frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_rostralmiddlefrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superior frontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_superiorfrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superior parietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_superiorparietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superior temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_superiortemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supramarginal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_supramarginal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temporal pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_temporalpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transverse temporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_transversetemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_insula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caudal anterior cingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_caudalanteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpus callosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_corpuscallosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_cuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entorhinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_entorhinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isthmus cingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_isthmuscingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_lingual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medial orbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_medialorbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parahippocampal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_parahippocampal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paracentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_paracentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pericalcarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_pericalcarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posterior cingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_posteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_precuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rostral anterior cingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_rostralanteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontal pole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lh_frontalpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_caudalanteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_corpuscallosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_cuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_entorhinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_fusiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_isthmuscingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lateraloccipital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lateralorbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_lingual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_medialorbitofrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parahippocampal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_paracentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_pericalcarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_postcentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_posteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_precentral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_precuneus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_rostralanteriorcingulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiorfrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiorparietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_frontalpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_temporalpole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_bankssts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_caudalmiddlefrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_inferiorparietal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_inferiortemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_middletemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parsopercularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parsorbitalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_parstriangularis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_rostralmiddlefrontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_superiortemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_supramarginal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_transversetemporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rh_insula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Lateral-Ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Inf-Lat-Vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Cerebellum-White-Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Cerebellum-Cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Caudate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Putamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Pallidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd-Ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th-Ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain-Stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Amygdala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Accumbens-area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-VentralDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Lateral-Ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Inf-Lat-Vent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Cerebellum-White-Matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Cerebellum-Cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Thalamus-Proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Caudate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Putamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Pallidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Amygdala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Accumbens-area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-VentralDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Hippocampus.ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Hippocampus.post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_Posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_Mid_Posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_Mid_Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC_Anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Hippocampus.ant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Hippocampus.post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coronal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thalamus proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lateral ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Left-Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putamen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amygdala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ventral DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right-Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pallidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caudate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">midline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3rd-ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x4th-ventricle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brain stem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC mid anterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC mid posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC posterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum cortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerebellum white matter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1354,7 +1857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1647,14 +2150,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1676,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1690,13 +2193,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1704,13 +2207,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>281</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1718,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1732,13 +2235,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1746,13 +2249,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1760,13 +2263,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1774,13 +2277,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>291</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1788,13 +2291,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1802,13 +2305,13 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1816,13 +2319,13 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>297</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1830,13 +2333,13 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>299</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1844,13 +2347,13 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>301</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1858,13 +2361,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1872,13 +2375,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1886,13 +2389,13 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1900,13 +2403,13 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>309</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1914,13 +2417,13 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1928,13 +2431,13 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>313</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1942,13 +2445,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1956,4291 +2459,4268 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>317</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>321</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>323</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>281</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>329</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>337</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>339</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>307</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>345</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>319</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>321</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>325</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>337</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>339</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
         <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>301</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
         <v>110</v>
       </c>
       <c r="C61" t="s">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B62" t="s">
         <v>110</v>
       </c>
       <c r="C62" t="s">
-        <v>343</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B63" t="s">
         <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
         <v>110</v>
       </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>277</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
-        <v>281</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="D72" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C73" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C74" t="s">
-        <v>291</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>135</v>
       </c>
       <c r="D76" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>303</v>
+        <v>143</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="D81" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="D82" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>149</v>
       </c>
       <c r="D83" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>155</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>381</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" t="s">
+        <v>110</v>
+      </c>
+      <c r="C89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C90" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B94" t="s">
+        <v>110</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>155</v>
+      </c>
+      <c r="B96" t="s">
+        <v>110</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" t="s">
+        <v>32</v>
+      </c>
+      <c r="D97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>155</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>110</v>
+      </c>
+      <c r="C103" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>155</v>
+      </c>
+      <c r="B104" t="s">
+        <v>110</v>
+      </c>
+      <c r="C104" t="s">
+        <v>133</v>
+      </c>
+      <c r="D104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105" t="s">
+        <v>50</v>
+      </c>
+      <c r="D105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>155</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>155</v>
+      </c>
+      <c r="B108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>137</v>
+      </c>
+      <c r="D109" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>155</v>
+      </c>
+      <c r="B111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C111" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>155</v>
+      </c>
+      <c r="B113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>147</v>
+      </c>
+      <c r="D114" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>149</v>
+      </c>
+      <c r="D115" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C116" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>155</v>
+      </c>
+      <c r="B117" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" t="s">
+        <v>153</v>
+      </c>
+      <c r="D117" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>155</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>155</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>155</v>
+      </c>
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>155</v>
+      </c>
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>155</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>155</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>155</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>123</v>
+      </c>
+      <c r="D130" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>155</v>
+      </c>
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>155</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>44</v>
+      </c>
+      <c r="D137" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>48</v>
+      </c>
+      <c r="D139" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>50</v>
+      </c>
+      <c r="D140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>155</v>
+      </c>
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>52</v>
+      </c>
+      <c r="D141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>155</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>54</v>
+      </c>
+      <c r="D142" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>56</v>
+      </c>
+      <c r="D143" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>155</v>
+      </c>
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>62</v>
+      </c>
+      <c r="D146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>155</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>70</v>
+      </c>
+      <c r="D150" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D152" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>80</v>
+      </c>
+      <c r="D155" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>155</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>86</v>
+      </c>
+      <c r="D158" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>88</v>
+      </c>
+      <c r="D159" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>90</v>
+      </c>
+      <c r="D160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>155</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>155</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>155</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>96</v>
+      </c>
+      <c r="D163" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>98</v>
+      </c>
+      <c r="D164" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>155</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>100</v>
+      </c>
+      <c r="D165" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" t="s">
+        <v>102</v>
+      </c>
+      <c r="D166" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>104</v>
+      </c>
+      <c r="D167" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>155</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>106</v>
+      </c>
+      <c r="D168" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>108</v>
+      </c>
+      <c r="D169" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D169"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>436</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>450</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>456</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>458</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>462</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>464</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>466</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>468</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>470</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>472</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>433</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>474</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>477</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>479</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>481</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>483</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>438</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>485</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>444</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>446</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>487</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>489</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>491</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>493</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>495</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>456</v>
       </c>
       <c r="D36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>497</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>458</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>501</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>462</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>464</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>470</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>477</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>479</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>481</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>483</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>485</v>
       </c>
       <c r="D50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>444</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>446</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>476</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>487</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>489</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>493</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>495</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>456</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>497</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>458</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>501</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>462</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C64" t="s">
-        <v>123</v>
+        <v>464</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>503</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>476</v>
       </c>
       <c r="C66" t="s">
-        <v>125</v>
+        <v>470</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C67" t="s">
-        <v>127</v>
+        <v>434</v>
       </c>
       <c r="D67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>436</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C69" t="s">
-        <v>129</v>
+        <v>438</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>442</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s">
-        <v>54</v>
+        <v>446</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B75" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C75" t="s">
-        <v>66</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>135</v>
+        <v>452</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C77" t="s">
-        <v>137</v>
+        <v>454</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>456</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>458</v>
       </c>
       <c r="D79" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>143</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C81" t="s">
-        <v>145</v>
+        <v>462</v>
       </c>
       <c r="D81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>464</v>
       </c>
       <c r="D82" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>466</v>
       </c>
       <c r="D83" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>470</v>
       </c>
       <c r="D85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B86" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>472</v>
       </c>
       <c r="D86" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B87" t="s">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="D87" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" t="s">
-        <v>110</v>
-      </c>
-      <c r="C89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D89" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C90" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" t="s">
-        <v>110</v>
-      </c>
-      <c r="C91" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>155</v>
-      </c>
-      <c r="B92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C92" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" t="s">
-        <v>110</v>
-      </c>
-      <c r="C93" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>155</v>
-      </c>
-      <c r="B94" t="s">
-        <v>110</v>
-      </c>
-      <c r="C94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" t="s">
-        <v>24</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>155</v>
-      </c>
-      <c r="B96" t="s">
-        <v>110</v>
-      </c>
-      <c r="C96" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" t="s">
-        <v>110</v>
-      </c>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>155</v>
-      </c>
-      <c r="B98" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>155</v>
-      </c>
-      <c r="B99" t="s">
-        <v>110</v>
-      </c>
-      <c r="C99" t="s">
-        <v>127</v>
-      </c>
-      <c r="D99" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>155</v>
-      </c>
-      <c r="B100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100" t="s">
-        <v>34</v>
-      </c>
-      <c r="D100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>155</v>
-      </c>
-      <c r="B101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C101" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>155</v>
-      </c>
-      <c r="B102" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" t="s">
-        <v>129</v>
-      </c>
-      <c r="D102" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>155</v>
-      </c>
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C103" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>155</v>
-      </c>
-      <c r="B104" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" t="s">
-        <v>133</v>
-      </c>
-      <c r="D104" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>155</v>
-      </c>
-      <c r="B105" t="s">
-        <v>110</v>
-      </c>
-      <c r="C105" t="s">
-        <v>50</v>
-      </c>
-      <c r="D105" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>155</v>
-      </c>
-      <c r="B106" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" t="s">
-        <v>64</v>
-      </c>
-      <c r="D106" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" t="s">
-        <v>110</v>
-      </c>
-      <c r="C107" t="s">
-        <v>66</v>
-      </c>
-      <c r="D107" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>155</v>
-      </c>
-      <c r="B108" t="s">
-        <v>110</v>
-      </c>
-      <c r="C108" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>155</v>
-      </c>
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>137</v>
-      </c>
-      <c r="D109" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" t="s">
-        <v>110</v>
-      </c>
-      <c r="C110" t="s">
-        <v>139</v>
-      </c>
-      <c r="D110" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>155</v>
-      </c>
-      <c r="B111" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" t="s">
-        <v>141</v>
-      </c>
-      <c r="D111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" t="s">
-        <v>143</v>
-      </c>
-      <c r="D112" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>155</v>
-      </c>
-      <c r="B113" t="s">
-        <v>110</v>
-      </c>
-      <c r="C113" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>155</v>
-      </c>
-      <c r="B114" t="s">
-        <v>110</v>
-      </c>
-      <c r="C114" t="s">
-        <v>147</v>
-      </c>
-      <c r="D114" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" t="s">
-        <v>110</v>
-      </c>
-      <c r="C115" t="s">
-        <v>149</v>
-      </c>
-      <c r="D115" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" t="s">
-        <v>110</v>
-      </c>
-      <c r="C116" t="s">
-        <v>151</v>
-      </c>
-      <c r="D116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>155</v>
-      </c>
-      <c r="B117" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" t="s">
-        <v>153</v>
-      </c>
-      <c r="D117" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>155</v>
-      </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>155</v>
-      </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" t="s">
-        <v>8</v>
-      </c>
-      <c r="D119" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>155</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C121" t="s">
-        <v>14</v>
-      </c>
-      <c r="D121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>155</v>
-      </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" t="s">
-        <v>16</v>
-      </c>
-      <c r="D122" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>155</v>
-      </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>155</v>
-      </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C124" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>155</v>
-      </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C125" t="s">
-        <v>22</v>
-      </c>
-      <c r="D125" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C126" t="s">
-        <v>24</v>
-      </c>
-      <c r="D126" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>155</v>
-      </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C127" t="s">
-        <v>26</v>
-      </c>
-      <c r="D127" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>155</v>
-      </c>
-      <c r="B128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>155</v>
-      </c>
-      <c r="B129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C129" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>155</v>
-      </c>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C130" t="s">
-        <v>123</v>
-      </c>
-      <c r="D130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>155</v>
-      </c>
-      <c r="B131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" t="s">
-        <v>32</v>
-      </c>
-      <c r="D131" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>155</v>
-      </c>
-      <c r="B132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132" t="s">
-        <v>34</v>
-      </c>
-      <c r="D132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>155</v>
-      </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>38</v>
-      </c>
-      <c r="D134" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>155</v>
-      </c>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>155</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>42</v>
-      </c>
-      <c r="D136" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>155</v>
-      </c>
-      <c r="B137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C137" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D138" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>155</v>
-      </c>
-      <c r="B139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C139" t="s">
-        <v>48</v>
-      </c>
-      <c r="D139" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>155</v>
-      </c>
-      <c r="B140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C140" t="s">
-        <v>50</v>
-      </c>
-      <c r="D140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>155</v>
-      </c>
-      <c r="B141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141" t="s">
-        <v>52</v>
-      </c>
-      <c r="D141" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>155</v>
-      </c>
-      <c r="B142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C142" t="s">
-        <v>54</v>
-      </c>
-      <c r="D142" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>155</v>
-      </c>
-      <c r="B143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C143" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>155</v>
-      </c>
-      <c r="B144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C144" t="s">
-        <v>58</v>
-      </c>
-      <c r="D144" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>155</v>
-      </c>
-      <c r="B145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>155</v>
-      </c>
-      <c r="B146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C146" t="s">
-        <v>62</v>
-      </c>
-      <c r="D146" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" t="s">
-        <v>64</v>
-      </c>
-      <c r="D147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>155</v>
-      </c>
-      <c r="B148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C148" t="s">
-        <v>66</v>
-      </c>
-      <c r="D148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" t="s">
-        <v>68</v>
-      </c>
-      <c r="D149" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150" t="s">
-        <v>70</v>
-      </c>
-      <c r="D150" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>155</v>
-      </c>
-      <c r="B151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>155</v>
-      </c>
-      <c r="B152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C152" t="s">
-        <v>74</v>
-      </c>
-      <c r="D152" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" t="s">
-        <v>76</v>
-      </c>
-      <c r="D153" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>155</v>
-      </c>
-      <c r="B154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" t="s">
-        <v>78</v>
-      </c>
-      <c r="D154" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" t="s">
-        <v>80</v>
-      </c>
-      <c r="D155" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" t="s">
-        <v>82</v>
-      </c>
-      <c r="D156" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" t="s">
-        <v>84</v>
-      </c>
-      <c r="D157" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>155</v>
-      </c>
-      <c r="B158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" t="s">
-        <v>88</v>
-      </c>
-      <c r="D159" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>155</v>
-      </c>
-      <c r="B160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" t="s">
-        <v>90</v>
-      </c>
-      <c r="D160" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>155</v>
-      </c>
-      <c r="B161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C161" t="s">
-        <v>92</v>
-      </c>
-      <c r="D161" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>155</v>
-      </c>
-      <c r="B162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" t="s">
-        <v>94</v>
-      </c>
-      <c r="D162" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>155</v>
-      </c>
-      <c r="B163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" t="s">
-        <v>96</v>
-      </c>
-      <c r="D163" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>155</v>
-      </c>
-      <c r="B164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
-        <v>98</v>
-      </c>
-      <c r="D164" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>155</v>
-      </c>
-      <c r="B165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C165" t="s">
-        <v>100</v>
-      </c>
-      <c r="D165" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>155</v>
-      </c>
-      <c r="B166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" t="s">
-        <v>102</v>
-      </c>
-      <c r="D166" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>155</v>
-      </c>
-      <c r="B167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" t="s">
-        <v>104</v>
-      </c>
-      <c r="D167" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>155</v>
-      </c>
-      <c r="B168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" t="s">
-        <v>106</v>
-      </c>
-      <c r="D168" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>155</v>
-      </c>
-      <c r="B169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" t="s">
-        <v>108</v>
-      </c>
-      <c r="D169" t="s">
-        <v>229</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="32.84375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>382</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>383</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>546</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>552</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>553</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>554</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>555</v>
       </c>
       <c r="B16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>556</v>
       </c>
       <c r="B17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>276</v>
+        <v>557</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>274</v>
+        <v>558</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>559</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>254</v>
+        <v>560</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>561</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>562</v>
       </c>
       <c r="B23" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>563</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>389</v>
+        <v>564</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>565</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>390</v>
+        <v>566</v>
       </c>
       <c r="B27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>567</v>
       </c>
       <c r="B28" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>568</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>270</v>
+        <v>569</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>571</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>572</v>
       </c>
       <c r="B33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>573</v>
       </c>
       <c r="B34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>574</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.53515625" customWidth="1"/>
-    <col min="2" max="2" width="8.3046875" customWidth="1"/>
-    <col min="3" max="3" width="25.53515625" customWidth="1"/>
-    <col min="4" max="4" width="32.84375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>430</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>576</v>
       </c>
       <c r="D2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>577</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>577</v>
       </c>
       <c r="D6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>580</v>
       </c>
       <c r="D7" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>581</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>580</v>
       </c>
       <c r="D9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>582</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>582</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C12" t="s">
-        <v>236</v>
+        <v>578</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>581</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>584</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C15" t="s">
-        <v>249</v>
+        <v>584</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>585</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>575</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>585</v>
       </c>
       <c r="D17" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C18" t="s">
-        <v>257</v>
+        <v>588</v>
       </c>
       <c r="D18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>590</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>592</v>
       </c>
       <c r="D20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B21" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>593</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>594</v>
       </c>
       <c r="D22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>595</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B24" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C24" t="s">
-        <v>269</v>
+        <v>596</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>597</v>
       </c>
       <c r="D25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C26" t="s">
-        <v>273</v>
+        <v>598</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>586</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>587</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>599</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="28.61328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>546</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>550</v>
       </c>
       <c r="B11" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="B14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>553</v>
       </c>
       <c r="B15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>554</v>
       </c>
       <c r="B16" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>555</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>556</v>
       </c>
       <c r="B18" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>557</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>558</v>
       </c>
       <c r="B20" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="B21" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>416</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>417</v>
+        <v>561</v>
       </c>
       <c r="B23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>418</v>
+        <v>562</v>
       </c>
       <c r="B24" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>419</v>
+        <v>583</v>
       </c>
       <c r="B25" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>420</v>
+        <v>563</v>
       </c>
       <c r="B26" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>421</v>
+        <v>564</v>
       </c>
       <c r="B27" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>422</v>
+        <v>565</v>
       </c>
       <c r="B28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>423</v>
+        <v>568</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>424</v>
+        <v>569</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>425</v>
+        <v>570</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>426</v>
+        <v>571</v>
       </c>
       <c r="B32" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
       <c r="B33" t="s">
-        <v>427</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>